--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Manage_Footer" sheetId="2" r:id="rId2"/>
     <sheet name="Manage_Contact" sheetId="3" r:id="rId3"/>
     <sheet name="Subcategory_Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Manage_News" sheetId="5" r:id="rId5"/>
+    <sheet name="Admin_User" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -55,9 +57,6 @@
     <t>Phone number</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
     <t>Accessories</t>
   </si>
   <si>
@@ -65,13 +64,34 @@
   </si>
   <si>
     <t>Subcategory  name</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Admin Username</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Evening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +115,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,10 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -573,18 +600,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
